--- a/data/survey_data.xlsx
+++ b/data/survey_data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/trvrb/Documents/src/tfcb_2019/homeworks/homework01/messy-project-files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theresachen/tfcb-homework01/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A2EF31-99BB-1147-875E-0BF67F65B824}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB85C2C-FF91-5A4B-87A3-8D38189F43BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1400" windowWidth="25120" windowHeight="15580" tabRatio="481" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1120" windowWidth="25120" windowHeight="15580" tabRatio="481" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
-    <sheet name="2014" sheetId="2" r:id="rId2"/>
+    <sheet name="tidy" sheetId="3" r:id="rId2"/>
+    <sheet name="2014" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="43">
   <si>
     <t>NA</t>
   </si>
@@ -140,6 +141,24 @@
   </si>
   <si>
     <t>gray cell means my measurement device wasn't calibrated correctly</t>
+  </si>
+  <si>
+    <t>field_season</t>
+  </si>
+  <si>
+    <t>date_collected</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>weight</t>
   </si>
 </sst>
 </file>
@@ -317,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -334,7 +353,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -731,7 +749,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -775,7 +793,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -800,7 +818,7 @@
   <dimension ref="C3:AB28"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
@@ -903,294 +921,294 @@
       <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="J7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="N7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="16" t="s">
         <v>10</v>
       </c>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <v>41471</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="17"/>
+      <c r="E8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="16"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>41505</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="5">
         <v>8</v>
       </c>
-      <c r="J8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="17">
+      <c r="J8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="16">
         <v>52</v>
       </c>
       <c r="L8" s="5"/>
-      <c r="M8" s="18">
+      <c r="M8" s="17">
         <v>41590</v>
       </c>
-      <c r="N8" s="16">
+      <c r="N8" s="5">
         <v>9</v>
       </c>
-      <c r="O8" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="17">
+      <c r="O8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="16">
         <v>117</v>
       </c>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <v>41471</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="5">
         <v>7</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="18">
+      <c r="H9" s="17">
         <v>41564</v>
       </c>
-      <c r="I9" s="16">
-        <v>3</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="17">
+      <c r="I9" s="5">
+        <v>3</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="16">
         <v>33</v>
       </c>
       <c r="L9" s="5"/>
-      <c r="M9" s="18">
+      <c r="M9" s="17">
         <v>41591</v>
       </c>
-      <c r="N9" s="16">
+      <c r="N9" s="5">
         <v>11</v>
       </c>
-      <c r="O9" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="17">
+      <c r="O9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="16">
         <v>126</v>
       </c>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <v>41471</v>
       </c>
-      <c r="D10" s="16">
-        <v>3</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="17"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="18">
+      <c r="H10" s="17">
         <v>41564</v>
       </c>
-      <c r="I10" s="16">
-        <v>3</v>
-      </c>
-      <c r="J10" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="17">
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="16">
         <v>50</v>
       </c>
       <c r="L10" s="5"/>
-      <c r="M10" s="18">
+      <c r="M10" s="17">
         <v>41591</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="5">
         <v>17</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="O10" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P10" s="17" t="s">
+      <c r="P10" s="16" t="s">
         <v>27</v>
       </c>
       <c r="Q10" s="5"/>
     </row>
     <row r="11" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <v>41471</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F11" s="17"/>
+      <c r="F11" s="16"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="18">
+      <c r="H11" s="17">
         <v>41618</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="5">
         <v>9</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="K11" s="17">
+      <c r="J11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="16">
         <v>40</v>
       </c>
       <c r="L11" s="5"/>
-      <c r="M11" s="18">
+      <c r="M11" s="17">
         <v>41591</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="5">
         <v>14</v>
       </c>
-      <c r="O11" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P11" s="17" t="s">
+      <c r="O11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="16" t="s">
         <v>28</v>
       </c>
       <c r="Q11" s="5"/>
     </row>
     <row r="12" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <v>41473</v>
       </c>
-      <c r="D12" s="16">
-        <v>3</v>
-      </c>
-      <c r="E12" s="16" t="s">
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="16" t="s">
         <v>23</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="18">
+      <c r="H12" s="17">
         <v>41618</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="5">
         <v>1</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K12" s="16">
         <v>45</v>
       </c>
       <c r="L12" s="5"/>
-      <c r="M12" s="18">
+      <c r="M12" s="17">
         <v>41591</v>
       </c>
-      <c r="N12" s="16">
+      <c r="N12" s="5">
         <v>11</v>
       </c>
-      <c r="O12" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="17">
+      <c r="O12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="16">
         <v>122</v>
       </c>
       <c r="Q12" s="5"/>
     </row>
     <row r="13" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>41473</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="5">
         <v>7</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="19">
+      <c r="H13" s="18">
         <v>41619</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I13" s="19">
         <v>8</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="21">
+      <c r="J13" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="20">
         <v>41</v>
       </c>
       <c r="L13" s="5"/>
-      <c r="M13" s="18">
+      <c r="M13" s="17">
         <v>41591</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="5">
         <v>4</v>
       </c>
-      <c r="O13" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="17">
+      <c r="O13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P13" s="16">
         <v>107</v>
       </c>
       <c r="Q13" s="5"/>
     </row>
     <row r="14" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <v>41473</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="17" t="s">
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="16" t="s">
         <v>25</v>
       </c>
       <c r="G14" s="5"/>
@@ -1199,31 +1217,31 @@
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="19">
+      <c r="M14" s="18">
         <v>41591</v>
       </c>
-      <c r="N14" s="20">
+      <c r="N14" s="19">
         <v>4</v>
       </c>
-      <c r="O14" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="P14" s="21">
+      <c r="O14" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="20">
         <v>115</v>
       </c>
       <c r="Q14" s="5"/>
     </row>
     <row r="15" spans="3:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>41473</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="19">
         <v>6</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G15" s="5"/>
@@ -1407,11 +1425,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFFE94F-8A55-FA4B-BA0B-1DCF52121D42}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
